--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T11:45:17+00:00</t>
+    <t>2024-08-01T08:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T08:50:18+00:00</t>
+    <t>2024-08-01T13:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T13:41:58+00:00</t>
+    <t>2024-08-06T11:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T11:00:40+00:00</t>
+    <t>2024-08-06T12:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:10:21+00:00</t>
+    <t>2024-08-07T21:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T21:51:51+00:00</t>
+    <t>2024-09-03T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:35:21+00:00</t>
+    <t>2024-09-03T06:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:46:02+00:00</t>
+    <t>2024-09-05T05:58:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-comment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
